--- a/Input/Cigna_Global_Health/Sheets_Backup/benefits11.xlsx
+++ b/Input/Cigna_Global_Health/Sheets_Backup/benefits11.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR50"/>
+  <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,13 +446,13 @@
         <v>Out-patient benefits</v>
       </c>
       <c r="N1" s="1" t="str">
-        <v>Out-patient_Consultations</v>
+        <v>Out-patient-Consultations</v>
       </c>
       <c r="O1" s="1" t="str">
-        <v>Out-patient_Specialists</v>
+        <v>Out-patient-Specialists</v>
       </c>
       <c r="P1" s="1" t="str">
-        <v>Out-patient_Medicines</v>
+        <v>Out-patient-Medicines</v>
       </c>
       <c r="Q1" s="1" t="str">
         <v>Vaccination</v>
@@ -537,6 +537,24 @@
       </c>
       <c r="AR1" s="1" t="str">
         <v>addons</v>
+      </c>
+      <c r="AS1" s="1" t="str">
+        <v>$copay</v>
+      </c>
+      <c r="AT1" s="1" t="str">
+        <v>$outPatient</v>
+      </c>
+      <c r="AU1" s="1" t="str">
+        <v>$vaccination</v>
+      </c>
+      <c r="AV1" s="1" t="str">
+        <v>$physiotherepy</v>
+      </c>
+      <c r="AW1" s="1" t="str">
+        <v>$medicines</v>
+      </c>
+      <c r="AX1" s="1" t="str">
+        <v>Deductible</v>
       </c>
     </row>
     <row r="2" xml:space="preserve">
@@ -578,25 +596,25 @@
         <v>Covered in full</v>
       </c>
       <c r="M2" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$outPatient</v>
       </c>
       <c r="N2" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$copay</v>
       </c>
       <c r="O2" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$copay</v>
       </c>
       <c r="P2" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$medicines</v>
       </c>
       <c r="Q2" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$vaccination</v>
       </c>
       <c r="R2" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$copay</v>
       </c>
       <c r="S2" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$physiotherepy</v>
       </c>
       <c r="T2" s="1" t="str">
         <v>Covered up to USD 14,000</v>
@@ -671,7 +689,25 @@
         <v>Worldwide including USA</v>
       </c>
       <c r="AR2" s="1" t="str">
-        <v>Out-patient benefits</v>
+        <v>Dental</v>
+      </c>
+      <c r="AS2" s="1" t="str">
+        <v>Covered in full - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum ^ Covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver ^ Covered up to USD 5,000 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</v>
+      </c>
+      <c r="AT2" s="1" t="str">
+        <v>Medicines covered up to USD 1,500, Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum ^ Medicines covered up to USD 1,500 Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver ^ Medicines covered up to USD 1,500 Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</v>
+      </c>
+      <c r="AU2" s="1" t="str">
+        <v>Adults- Covered in full - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum ^ Adults- Covered up to USD 250 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver ^ Adults- Covered in full - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</v>
+      </c>
+      <c r="AV2" s="1" t="str">
+        <v>Covered in full - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum ^ Covered up to USD 5,000 (Combined benefit) - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver ^ Covered up to USD 10,000 (Combined benefit) - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</v>
+      </c>
+      <c r="AW2" s="1" t="str">
+        <v>Covered in full - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum ^ Covered up to USD 1,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver ^ Covered up to USD 3,000 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</v>
+      </c>
+      <c r="AX2" s="1" t="str">
+        <v>IP</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
@@ -713,25 +749,25 @@
         <v>Covered in full</v>
       </c>
       <c r="M3" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$outPatient</v>
       </c>
       <c r="N3" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$copay</v>
       </c>
       <c r="O3" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$copay</v>
       </c>
       <c r="P3" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$medicines</v>
       </c>
       <c r="Q3" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$vaccination</v>
       </c>
       <c r="R3" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$copay</v>
       </c>
       <c r="S3" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$physiotherepy</v>
       </c>
       <c r="T3" s="1" t="str">
         <v>N/A</v>
@@ -794,7 +830,10 @@
         <v>Worldwide excluding USA</v>
       </c>
       <c r="AR3" s="1" t="str">
-        <v>Dental</v>
+        <v>Optical Benefits</v>
+      </c>
+      <c r="AX3" s="1" t="str">
+        <v>OP</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
@@ -836,25 +875,25 @@
         <v>Covered in full</v>
       </c>
       <c r="M4" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$outPatient</v>
       </c>
       <c r="N4" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$copay</v>
       </c>
       <c r="O4" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$copay</v>
       </c>
       <c r="P4" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$medicines</v>
       </c>
       <c r="Q4" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$vaccination</v>
       </c>
       <c r="R4" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$copay</v>
       </c>
       <c r="S4" s="1" t="str">
-        <v>Optional Benefit</v>
+        <v>$physiotherepy</v>
       </c>
       <c r="T4" s="1" t="str">
         <v>Covered up to USD 7,000</v>
@@ -914,7 +953,7 @@
         <v>$0, 20% Co-insurance, $3,000 Out of pocket</v>
       </c>
       <c r="AR4" s="1" t="str">
-        <v>Optical Benefits</v>
+        <v>Emergency-Evacuation</v>
       </c>
     </row>
     <row r="5">
@@ -925,7 +964,7 @@
         <v>$0, 30% Co-insurance, $3,000 Out of pocket</v>
       </c>
       <c r="AR5" s="1" t="str">
-        <v>Emergency-Evacuation</v>
+        <v>Wellness &amp; Health Screening</v>
       </c>
     </row>
     <row r="6">
@@ -936,7 +975,7 @@
         <v>$1,000, 0% Co-insurance</v>
       </c>
       <c r="AR6" s="1" t="str">
-        <v>Wellness &amp; Health Screening</v>
+        <v>Dental_Waiting_Period</v>
       </c>
     </row>
     <row r="7">
@@ -946,9 +985,6 @@
       <c r="AL7" s="1" t="str">
         <v>$1,000, 10% Co-insurance, $3,000 Out of pocket</v>
       </c>
-      <c r="AR7" s="1" t="str">
-        <v>Out-patient_Consultations</v>
-      </c>
     </row>
     <row r="8">
       <c r="AK8" s="1" t="str">
@@ -957,9 +993,6 @@
       <c r="AL8" s="1" t="str">
         <v>$1,000, 20% Co-insurance, $3,000 Out of pocket</v>
       </c>
-      <c r="AR8" s="1" t="str">
-        <v>Out-patient_Specialists</v>
-      </c>
     </row>
     <row r="9">
       <c r="AK9" s="1" t="str">
@@ -968,9 +1001,6 @@
       <c r="AL9" s="1" t="str">
         <v>$1,000, 30% Co-insurance, $3,000 Out of pocket</v>
       </c>
-      <c r="AR9" s="1" t="str">
-        <v>Out-patient_Medicines</v>
-      </c>
     </row>
     <row r="10">
       <c r="AK10" s="1" t="str">
@@ -979,9 +1009,6 @@
       <c r="AL10" s="1" t="str">
         <v>$1,500, 0% Co-insurance</v>
       </c>
-      <c r="AR10" s="1" t="str">
-        <v>Vaccination</v>
-      </c>
     </row>
     <row r="11">
       <c r="AK11" s="1" t="str">
@@ -990,9 +1017,6 @@
       <c r="AL11" s="1" t="str">
         <v>$1,500, 10% Co-insurance, $3,000 Out of pocket</v>
       </c>
-      <c r="AR11" s="1" t="str">
-        <v>Scans</v>
-      </c>
     </row>
     <row r="12">
       <c r="AK12" s="1" t="str">
@@ -1001,9 +1025,6 @@
       <c r="AL12" s="1" t="str">
         <v>$1,500, 20% Co-insurance, $3,000 Out of pocket</v>
       </c>
-      <c r="AR12" s="1" t="str">
-        <v>Physiotherapy</v>
-      </c>
     </row>
     <row r="13">
       <c r="AK13" s="1" t="str">
@@ -1012,9 +1033,6 @@
       <c r="AL13" s="1" t="str">
         <v>$1,500, 30% Co-insurance, $3,000 Out of pocket</v>
       </c>
-      <c r="AR13" s="1" t="str">
-        <v>Dental_Waiting_Period</v>
-      </c>
     </row>
     <row r="14">
       <c r="AK14" s="1" t="str">
@@ -1227,7 +1245,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AR50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AX50"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Input/Cigna_Global_Health/Sheets_Backup/benefits11.xlsx
+++ b/Input/Cigna_Global_Health/Sheets_Backup/benefits11.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX50"/>
+  <dimension ref="A1:AY50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -497,63 +497,66 @@
         <v>Emergency-Evacuation</v>
       </c>
       <c r="AE1" s="1" t="str">
+        <v>Repatriation-Benefit</v>
+      </c>
+      <c r="AF1" s="1" t="str">
         <v>Virtual / Tele Doctor</v>
       </c>
-      <c r="AF1" s="1" t="str">
+      <c r="AG1" s="1" t="str">
         <v>Member Web Portal</v>
       </c>
-      <c r="AG1" s="1" t="str">
+      <c r="AH1" s="1" t="str">
         <v>Mobile Application</v>
       </c>
-      <c r="AH1" s="1" t="str">
+      <c r="AI1" s="1" t="str">
         <v>Semi Annual Surcharge</v>
       </c>
-      <c r="AI1" s="1" t="str">
+      <c r="AJ1" s="1" t="str">
         <v>Quarterly Surcharge</v>
       </c>
-      <c r="AJ1" s="1" t="str">
+      <c r="AK1" s="1" t="str">
         <v>Monthly Surcharge</v>
       </c>
-      <c r="AK1" s="1" t="str">
+      <c r="AL1" s="1" t="str">
         <v>copayIP</v>
       </c>
-      <c r="AL1" s="1" t="str">
+      <c r="AM1" s="1" t="str">
         <v>copayOP</v>
       </c>
-      <c r="AM1" s="1" t="str">
+      <c r="AN1" s="1" t="str">
         <v>companyName</v>
       </c>
-      <c r="AN1" s="1" t="str">
+      <c r="AO1" s="1" t="str">
         <v>residency</v>
       </c>
-      <c r="AO1" s="1" t="str">
+      <c r="AP1" s="1" t="str">
         <v>startDate</v>
       </c>
-      <c r="AP1" s="1" t="str">
+      <c r="AQ1" s="1" t="str">
         <v>frequency</v>
       </c>
-      <c r="AQ1" s="1" t="str">
+      <c r="AR1" s="1" t="str">
         <v>coverages</v>
       </c>
-      <c r="AR1" s="1" t="str">
+      <c r="AS1" s="1" t="str">
         <v>addons</v>
       </c>
-      <c r="AS1" s="1" t="str">
+      <c r="AT1" s="1" t="str">
         <v>$copay</v>
       </c>
-      <c r="AT1" s="1" t="str">
+      <c r="AU1" s="1" t="str">
         <v>$outPatient</v>
       </c>
-      <c r="AU1" s="1" t="str">
+      <c r="AV1" s="1" t="str">
         <v>$vaccination</v>
       </c>
-      <c r="AV1" s="1" t="str">
+      <c r="AW1" s="1" t="str">
         <v>$physiotherepy</v>
       </c>
-      <c r="AW1" s="1" t="str">
+      <c r="AX1" s="1" t="str">
         <v>$medicines</v>
       </c>
-      <c r="AX1" s="1" t="str">
+      <c r="AY1" s="1" t="str">
         <v>Deductible</v>
       </c>
     </row>
@@ -650,7 +653,7 @@
         <v>Optional Benefit</v>
       </c>
       <c r="AE2" s="1" t="str">
-        <v>Available</v>
+        <v>Optional Benefit</v>
       </c>
       <c r="AF2" s="1" t="str">
         <v>Available</v>
@@ -659,54 +662,57 @@
         <v>Available</v>
       </c>
       <c r="AH2" s="1" t="str">
+        <v>Available</v>
+      </c>
+      <c r="AI2" s="1" t="str">
         <v>N/A</v>
       </c>
-      <c r="AI2" s="1" t="str">
+      <c r="AJ2" s="1" t="str">
         <v>3%</v>
       </c>
-      <c r="AJ2" s="1" t="str">
+      <c r="AK2" s="1" t="str">
         <v>11%</v>
       </c>
-      <c r="AK2" s="1" t="str">
+      <c r="AL2" s="1" t="str">
         <v>$0, 0% Co-insurance, $0 Out of pocket</v>
       </c>
-      <c r="AL2" s="1" t="str">
+      <c r="AM2" s="1" t="str">
         <v>$0, 0% Co-insurance</v>
       </c>
-      <c r="AM2" s="1" t="str">
+      <c r="AN2" s="1" t="str">
         <v>cigna_global_health</v>
       </c>
-      <c r="AN2" s="1" t="str">
+      <c r="AO2" s="1" t="str">
         <v>Medium-Americas - High-Americas - High</v>
       </c>
-      <c r="AO2" s="1" t="str">
+      <c r="AP2" s="1" t="str">
         <v>2024-02-15</v>
       </c>
-      <c r="AP2" s="1" t="str">
+      <c r="AQ2" s="1" t="str">
         <v>Annually</v>
       </c>
-      <c r="AQ2" s="1" t="str">
+      <c r="AR2" s="1" t="str">
         <v>Worldwide including USA</v>
       </c>
-      <c r="AR2" s="1" t="str">
+      <c r="AS2" s="1" t="str">
         <v>Dental</v>
       </c>
-      <c r="AS2" s="1" t="str">
+      <c r="AT2" s="1" t="str">
         <v>Covered in full - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum ^ Covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver ^ Covered up to USD 5,000 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</v>
       </c>
-      <c r="AT2" s="1" t="str">
+      <c r="AU2" s="1" t="str">
         <v>Medicines covered up to USD 1,500, Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum ^ Medicines covered up to USD 1,500 Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver ^ Medicines covered up to USD 1,500 Diagnostics &amp; lab tests covered up to USD 2,500  Consultation covered up to USD 2,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</v>
       </c>
-      <c r="AU2" s="1" t="str">
+      <c r="AV2" s="1" t="str">
         <v>Adults- Covered in full - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum ^ Adults- Covered up to USD 250 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver ^ Adults- Covered in full - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</v>
       </c>
-      <c r="AV2" s="1" t="str">
+      <c r="AW2" s="1" t="str">
         <v>Covered in full - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum ^ Covered up to USD 5,000 (Combined benefit) - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver ^ Covered up to USD 10,000 (Combined benefit) - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</v>
       </c>
-      <c r="AW2" s="1" t="str">
+      <c r="AX2" s="1" t="str">
         <v>Covered in full - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Platinum ^ Covered up to USD 1,500 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Silver ^ Covered up to USD 3,000 - $0, 0% Co-insurance/$0, 10% Co-insurance, $3,000 Out of pocket/$0, 20% Co-insurance, $3,000 Out of pocket/$0, 30% Co-insurance, $3,000 Out of pocket/$1,000, 0% Co-insurance/$1,000, 10% Co-insurance, $3,000 Out of pocket/$1,000, 20% Co-insurance, $3,000 Out of pocket/$1,000, 30% Co-insurance, $3,000 Out of pocket/$1,500, 0% Co-insurance$1,500, 10% Co-insurance, $3,000 Out of pocket/$1,500, 20% Co-insurance, $3,000 Out of pocket/$1,500, 30% Co-insurance, $3,000 Out of pocket/$150, 0% Co-insurance/$150, 10% Co-insurance, $3,000 Out of pocket/$150, 20% Co-insurance, $3,000 Out of pocket/$150, 30% Co-insurance, $3,000 Out of pocket/$500, 0% Co-insurance/$500, 10% Co-insurance, $3,000 Out of pocket/$500, 20% Co-insurance, $3,000 Out of pocket/$500, 30% Co-insurance, $3,000 Out of pocket - Gold</v>
       </c>
-      <c r="AX2" s="1" t="str">
+      <c r="AY2" s="1" t="str">
         <v>IP</v>
       </c>
     </row>
@@ -803,7 +809,7 @@
         <v>Optional Benefit</v>
       </c>
       <c r="AE3" s="1" t="str">
-        <v>Available</v>
+        <v>Optional Benefit</v>
       </c>
       <c r="AF3" s="1" t="str">
         <v>Available</v>
@@ -812,27 +818,30 @@
         <v>Available</v>
       </c>
       <c r="AH3" s="1" t="str">
+        <v>Available</v>
+      </c>
+      <c r="AI3" s="1" t="str">
         <v>N/A</v>
       </c>
-      <c r="AI3" s="1" t="str">
+      <c r="AJ3" s="1" t="str">
         <v>3%</v>
       </c>
-      <c r="AJ3" s="1" t="str">
+      <c r="AK3" s="1" t="str">
         <v>11%</v>
       </c>
-      <c r="AK3" s="1" t="str">
+      <c r="AL3" s="1" t="str">
         <v>$0, 10% Co-insurance, $2,000 Out of pocket</v>
       </c>
-      <c r="AL3" s="1" t="str">
+      <c r="AM3" s="1" t="str">
         <v>$0, 10% Co-insurance, $3,000 Out of pocket</v>
       </c>
-      <c r="AQ3" s="1" t="str">
+      <c r="AR3" s="1" t="str">
         <v>Worldwide excluding USA</v>
       </c>
-      <c r="AR3" s="1" t="str">
+      <c r="AS3" s="1" t="str">
         <v>Optical Benefits</v>
       </c>
-      <c r="AX3" s="1" t="str">
+      <c r="AY3" s="1" t="str">
         <v>OP</v>
       </c>
     </row>
@@ -929,7 +938,7 @@
         <v>Optional Benefit</v>
       </c>
       <c r="AE4" s="1" t="str">
-        <v>Available</v>
+        <v>Optional Benefit</v>
       </c>
       <c r="AF4" s="1" t="str">
         <v>Available</v>
@@ -938,314 +947,317 @@
         <v>Available</v>
       </c>
       <c r="AH4" s="1" t="str">
+        <v>Available</v>
+      </c>
+      <c r="AI4" s="1" t="str">
         <v>N/A</v>
       </c>
-      <c r="AI4" s="1" t="str">
+      <c r="AJ4" s="1" t="str">
         <v>3%</v>
       </c>
-      <c r="AJ4" s="1" t="str">
+      <c r="AK4" s="1" t="str">
         <v>11%</v>
       </c>
-      <c r="AK4" s="1" t="str">
+      <c r="AL4" s="1" t="str">
         <v>$0, 10% Co-insurance, $5,000 Out of pocket</v>
       </c>
-      <c r="AL4" s="1" t="str">
+      <c r="AM4" s="1" t="str">
         <v>$0, 20% Co-insurance, $3,000 Out of pocket</v>
       </c>
-      <c r="AR4" s="1" t="str">
-        <v>Emergency-Evacuation</v>
+      <c r="AS4" s="1" t="str">
+        <v>Repatriation-Benefit</v>
       </c>
     </row>
     <row r="5">
-      <c r="AK5" s="1" t="str">
+      <c r="AL5" s="1" t="str">
         <v>$0, 20% Co-insurance, $2,000 Out of pocket</v>
       </c>
-      <c r="AL5" s="1" t="str">
+      <c r="AM5" s="1" t="str">
         <v>$0, 30% Co-insurance, $3,000 Out of pocket</v>
       </c>
-      <c r="AR5" s="1" t="str">
+      <c r="AS5" s="1" t="str">
         <v>Wellness &amp; Health Screening</v>
       </c>
     </row>
     <row r="6">
-      <c r="AK6" s="1" t="str">
+      <c r="AL6" s="1" t="str">
         <v>$0, 20% Co-insurance, $5,000 Out of pocket</v>
       </c>
-      <c r="AL6" s="1" t="str">
+      <c r="AM6" s="1" t="str">
         <v>$1,000, 0% Co-insurance</v>
       </c>
-      <c r="AR6" s="1" t="str">
+      <c r="AS6" s="1" t="str">
         <v>Dental_Waiting_Period</v>
       </c>
     </row>
     <row r="7">
-      <c r="AK7" s="1" t="str">
+      <c r="AL7" s="1" t="str">
         <v>$0, 30% Co-insurance, $2,000 Out of pocket</v>
       </c>
-      <c r="AL7" s="1" t="str">
+      <c r="AM7" s="1" t="str">
         <v>$1,000, 10% Co-insurance, $3,000 Out of pocket</v>
       </c>
     </row>
     <row r="8">
-      <c r="AK8" s="1" t="str">
+      <c r="AL8" s="1" t="str">
         <v>$0, 30% Co-insurance, $5,000 Out of pocket</v>
       </c>
-      <c r="AL8" s="1" t="str">
+      <c r="AM8" s="1" t="str">
         <v>$1,000, 20% Co-insurance, $3,000 Out of pocket</v>
       </c>
     </row>
     <row r="9">
-      <c r="AK9" s="1" t="str">
+      <c r="AL9" s="1" t="str">
         <v>$1,500, 0% Co-insurance, $0 Out of pocket</v>
       </c>
-      <c r="AL9" s="1" t="str">
+      <c r="AM9" s="1" t="str">
         <v>$1,000, 30% Co-insurance, $3,000 Out of pocket</v>
       </c>
     </row>
     <row r="10">
-      <c r="AK10" s="1" t="str">
+      <c r="AL10" s="1" t="str">
         <v>$1,500, 10% Co-insurance, $2,000 Out of pocket</v>
       </c>
-      <c r="AL10" s="1" t="str">
+      <c r="AM10" s="1" t="str">
         <v>$1,500, 0% Co-insurance</v>
       </c>
     </row>
     <row r="11">
-      <c r="AK11" s="1" t="str">
+      <c r="AL11" s="1" t="str">
         <v>$1,500, 10% Co-insurance, $5,000 Out of pocket</v>
       </c>
-      <c r="AL11" s="1" t="str">
+      <c r="AM11" s="1" t="str">
         <v>$1,500, 10% Co-insurance, $3,000 Out of pocket</v>
       </c>
     </row>
     <row r="12">
-      <c r="AK12" s="1" t="str">
+      <c r="AL12" s="1" t="str">
         <v>$1,500, 20% Co-insurance, $2,000 Out of pocket</v>
       </c>
-      <c r="AL12" s="1" t="str">
+      <c r="AM12" s="1" t="str">
         <v>$1,500, 20% Co-insurance, $3,000 Out of pocket</v>
       </c>
     </row>
     <row r="13">
-      <c r="AK13" s="1" t="str">
+      <c r="AL13" s="1" t="str">
         <v>$1,500, 20% Co-insurance, $5,000 Out of pocket</v>
       </c>
-      <c r="AL13" s="1" t="str">
+      <c r="AM13" s="1" t="str">
         <v>$1,500, 30% Co-insurance, $3,000 Out of pocket</v>
       </c>
     </row>
     <row r="14">
-      <c r="AK14" s="1" t="str">
+      <c r="AL14" s="1" t="str">
         <v>$1,500, 30% Co-insurance, $2,000 Out of pocket</v>
       </c>
-      <c r="AL14" s="1" t="str">
+      <c r="AM14" s="1" t="str">
         <v>$150, 0% Co-insurance</v>
       </c>
     </row>
     <row r="15">
-      <c r="AK15" s="1" t="str">
+      <c r="AL15" s="1" t="str">
         <v>$1,500, 30% Co-insurance, $5,000 Out of pocket</v>
       </c>
-      <c r="AL15" s="1" t="str">
+      <c r="AM15" s="1" t="str">
         <v>$150, 10% Co-insurance, $3,000 Out of pocket</v>
       </c>
     </row>
     <row r="16">
-      <c r="AK16" s="1" t="str">
+      <c r="AL16" s="1" t="str">
         <v>$10,000, 0% Co-insurance, $0 Out of pocket</v>
       </c>
-      <c r="AL16" s="1" t="str">
+      <c r="AM16" s="1" t="str">
         <v>$150, 20% Co-insurance, $3,000 Out of pocket</v>
       </c>
     </row>
     <row r="17">
-      <c r="AK17" s="1" t="str">
+      <c r="AL17" s="1" t="str">
         <v>$10,000, 10% Co-insurance, $2,000 Out of pocket</v>
       </c>
-      <c r="AL17" s="1" t="str">
+      <c r="AM17" s="1" t="str">
         <v>$150, 30% Co-insurance, $3,000 Out of pocket</v>
       </c>
     </row>
     <row r="18">
-      <c r="AK18" s="1" t="str">
+      <c r="AL18" s="1" t="str">
         <v>$10,000, 10% Co-insurance, $5,000 Out of pocket</v>
       </c>
-      <c r="AL18" s="1" t="str">
+      <c r="AM18" s="1" t="str">
         <v>$500, 0% Co-insurance</v>
       </c>
     </row>
     <row r="19">
-      <c r="AK19" s="1" t="str">
+      <c r="AL19" s="1" t="str">
         <v>$10,000, 20% Co-insurance, $2,000 Out of pocket</v>
       </c>
-      <c r="AL19" s="1" t="str">
+      <c r="AM19" s="1" t="str">
         <v>$500, 10% Co-insurance, $3,000 Out of pocket</v>
       </c>
     </row>
     <row r="20">
-      <c r="AK20" s="1" t="str">
+      <c r="AL20" s="1" t="str">
         <v>$10,000, 20% Co-insurance, $5,000 Out of pocket</v>
       </c>
-      <c r="AL20" s="1" t="str">
+      <c r="AM20" s="1" t="str">
         <v>$500, 20% Co-insurance, $3,000 Out of pocket</v>
       </c>
     </row>
     <row r="21">
-      <c r="AK21" s="1" t="str">
+      <c r="AL21" s="1" t="str">
         <v>$10,000, 30% Co-insurance, $2,000 Out of pocket</v>
       </c>
-      <c r="AL21" s="1" t="str">
+      <c r="AM21" s="1" t="str">
         <v>$500, 30% Co-insurance, $3,000 Out of pocket</v>
       </c>
     </row>
     <row r="22">
-      <c r="AK22" s="1" t="str">
+      <c r="AL22" s="1" t="str">
         <v>$10,000, 30% Co-insurance, $5,000 Out of pocket</v>
       </c>
     </row>
     <row r="23">
-      <c r="AK23" s="1" t="str">
+      <c r="AL23" s="1" t="str">
         <v>$3,000, 0% Co-insurance, $0 Out of pocket</v>
       </c>
     </row>
     <row r="24">
-      <c r="AK24" s="1" t="str">
+      <c r="AL24" s="1" t="str">
         <v>$3,000, 10% Co-insurance, $2,000 Out of pocket</v>
       </c>
     </row>
     <row r="25">
-      <c r="AK25" s="1" t="str">
+      <c r="AL25" s="1" t="str">
         <v>$3,000, 10% Co-insurance, $5,000 Out of pocket</v>
       </c>
     </row>
     <row r="26">
-      <c r="AK26" s="1" t="str">
+      <c r="AL26" s="1" t="str">
         <v>$3,000, 20% Co-insurance, $2,000 Out of pocket</v>
       </c>
     </row>
     <row r="27">
-      <c r="AK27" s="1" t="str">
+      <c r="AL27" s="1" t="str">
         <v>$3,000, 20% Co-insurance, $5,000 Out of pocket</v>
       </c>
     </row>
     <row r="28">
-      <c r="AK28" s="1" t="str">
+      <c r="AL28" s="1" t="str">
         <v>$3,000, 30% Co-insurance, $2,000 Out of pocket</v>
       </c>
     </row>
     <row r="29">
-      <c r="AK29" s="1" t="str">
+      <c r="AL29" s="1" t="str">
         <v>$3,000, 30% Co-insurance, $5,000 Out of pocket</v>
       </c>
     </row>
     <row r="30">
-      <c r="AK30" s="1" t="str">
+      <c r="AL30" s="1" t="str">
         <v>$375, 0% Co-insurance, $0 Out of pocket</v>
       </c>
     </row>
     <row r="31">
-      <c r="AK31" s="1" t="str">
+      <c r="AL31" s="1" t="str">
         <v>$375, 10% Co-insurance, $2,000 Out of pocket</v>
       </c>
     </row>
     <row r="32">
-      <c r="AK32" s="1" t="str">
+      <c r="AL32" s="1" t="str">
         <v>$375, 10% Co-insurance, $5,000 Out of pocket</v>
       </c>
     </row>
     <row r="33">
-      <c r="AK33" s="1" t="str">
+      <c r="AL33" s="1" t="str">
         <v>$375, 20% Co-insurance, $2,000 Out of pocket</v>
       </c>
     </row>
     <row r="34">
-      <c r="AK34" s="1" t="str">
+      <c r="AL34" s="1" t="str">
         <v>$375, 20% Co-insurance, $5,000 Out of pocket</v>
       </c>
     </row>
     <row r="35">
-      <c r="AK35" s="1" t="str">
+      <c r="AL35" s="1" t="str">
         <v>$375, 30% Co-insurance, $2,000 Out of pocket</v>
       </c>
     </row>
     <row r="36">
-      <c r="AK36" s="1" t="str">
+      <c r="AL36" s="1" t="str">
         <v>$375, 30% Co-insurance, $5,000 Out of pocket</v>
       </c>
     </row>
     <row r="37">
-      <c r="AK37" s="1" t="str">
+      <c r="AL37" s="1" t="str">
         <v>$7,500, 0% Co-insurance, $0 Out of pocket</v>
       </c>
     </row>
     <row r="38">
-      <c r="AK38" s="1" t="str">
+      <c r="AL38" s="1" t="str">
         <v>$7,500, 10% Co-insurance, $2,000 Out of pocket</v>
       </c>
     </row>
     <row r="39">
-      <c r="AK39" s="1" t="str">
+      <c r="AL39" s="1" t="str">
         <v>$7,500, 10% Co-insurance, $5,000 Out of pocket</v>
       </c>
     </row>
     <row r="40">
-      <c r="AK40" s="1" t="str">
+      <c r="AL40" s="1" t="str">
         <v>$7,500, 20% Co-insurance, $2,000 Out of pocket</v>
       </c>
     </row>
     <row r="41">
-      <c r="AK41" s="1" t="str">
+      <c r="AL41" s="1" t="str">
         <v>$7,500, 20% Co-insurance, $5,000 Out of pocket</v>
       </c>
     </row>
     <row r="42">
-      <c r="AK42" s="1" t="str">
+      <c r="AL42" s="1" t="str">
         <v>$7,500, 30% Co-insurance, $2,000 Out of pocket</v>
       </c>
     </row>
     <row r="43">
-      <c r="AK43" s="1" t="str">
+      <c r="AL43" s="1" t="str">
         <v>$7,500, 30% Co-insurance, $5,000 Out of pocket</v>
       </c>
     </row>
     <row r="44">
-      <c r="AK44" s="1" t="str">
+      <c r="AL44" s="1" t="str">
         <v>$750, 0% Co-insurance, $0 Out of pocket</v>
       </c>
     </row>
     <row r="45">
-      <c r="AK45" s="1" t="str">
+      <c r="AL45" s="1" t="str">
         <v>$750, 10% Co-insurance, $2,000 Out of pocket</v>
       </c>
     </row>
     <row r="46">
-      <c r="AK46" s="1" t="str">
+      <c r="AL46" s="1" t="str">
         <v>$750, 10% Co-insurance, $5,000 Out of pocket</v>
       </c>
     </row>
     <row r="47">
-      <c r="AK47" s="1" t="str">
+      <c r="AL47" s="1" t="str">
         <v>$750, 20% Co-insurance, $2,000 Out of pocket</v>
       </c>
     </row>
     <row r="48">
-      <c r="AK48" s="1" t="str">
+      <c r="AL48" s="1" t="str">
         <v>$750, 20% Co-insurance, $5,000 Out of pocket</v>
       </c>
     </row>
     <row r="49">
-      <c r="AK49" s="1" t="str">
+      <c r="AL49" s="1" t="str">
         <v>$750, 30% Co-insurance, $2,000 Out of pocket</v>
       </c>
     </row>
     <row r="50">
-      <c r="AK50" s="1" t="str">
+      <c r="AL50" s="1" t="str">
         <v>$750, 30% Co-insurance, $5,000 Out of pocket</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AX50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AY50"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Input/Cigna_Global_Health/Sheets_Backup/benefits11.xlsx
+++ b/Input/Cigna_Global_Health/Sheets_Backup/benefits11.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY50"/>
+  <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -559,6 +559,9 @@
       <c r="AY1" s="1" t="str">
         <v>Deductible</v>
       </c>
+      <c r="AZ1" s="1" t="str">
+        <v>dependent benefits</v>
+      </c>
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" s="1" t="str">
@@ -715,6 +718,9 @@
       <c r="AY2" s="1" t="str">
         <v>IP</v>
       </c>
+      <c r="AZ2" s="1" t="str">
+        <v>Dental - Dental_Waiting_Period</v>
+      </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" s="1" t="str">
@@ -844,6 +850,9 @@
       <c r="AY3" s="1" t="str">
         <v>OP</v>
       </c>
+      <c r="AZ3" s="1" t="str">
+        <v>Dental - Optical Benefits</v>
+      </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" s="1" t="str">
@@ -967,6 +976,9 @@
       <c r="AS4" s="1" t="str">
         <v>Repatriation-Benefit</v>
       </c>
+      <c r="AZ4" s="1" t="str">
+        <v>Dental - Emergency-Evacuation</v>
+      </c>
     </row>
     <row r="5">
       <c r="AL5" s="1" t="str">
@@ -997,6 +1009,9 @@
       <c r="AM7" s="1" t="str">
         <v>$1,000, 10% Co-insurance, $3,000 Out of pocket</v>
       </c>
+      <c r="AS7" s="1" t="str">
+        <v>Emergency-Evacuation</v>
+      </c>
     </row>
     <row r="8">
       <c r="AL8" s="1" t="str">
@@ -1257,7 +1272,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AY50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AZ50"/>
   </ignoredErrors>
 </worksheet>
 </file>